--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/mock_thesis-master/R-Workshop-Day-1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmylim/Desktop/Bootcamp/R-Workshop-Day-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826B1A1-C33D-C441-B086-ACA1CBB79755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9599AD-3D1F-6C44-86C7-96B6252FAB42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="13120" windowHeight="6100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="34">
   <si>
     <t>Petal.Width</t>
   </si>
@@ -4210,10 +4210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4800,6 +4800,14 @@
       </c>
       <c r="B75" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimmylim/Desktop/Bootcamp/R-Workshop-Day-1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/mock_thesis-master/R-Workshop-Day-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9599AD-3D1F-6C44-86C7-96B6252FAB42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826B1A1-C33D-C441-B086-ACA1CBB79755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="13120" windowHeight="6100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="34">
   <si>
     <t>Petal.Width</t>
   </si>
@@ -4210,10 +4210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4800,14 +4800,6 @@
       </c>
       <c r="B75" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>123</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/mock_thesis-master/R-Workshop-Day-1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yannanshen/Desktop/mock_thesis-master/mock_thesis/R-Workshop-Day-1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8826B1A1-C33D-C441-B086-ACA1CBB79755}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB18BD6-B9C8-E640-B67F-098A427FBF7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="13120" windowHeight="6100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13120" windowHeight="12560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="35">
   <si>
     <t>Petal.Width</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Meng change</t>
+  </si>
+  <si>
+    <t>carb.2</t>
   </si>
 </sst>
 </file>
@@ -3041,13 +3044,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3081,8 +3086,11 @@
       <c r="K1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>21</v>
       </c>
@@ -3116,8 +3124,11 @@
       <c r="K2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -3151,8 +3162,11 @@
       <c r="K3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>22.8</v>
       </c>
@@ -3186,8 +3200,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21.4</v>
       </c>
@@ -3221,8 +3238,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18.7</v>
       </c>
@@ -3256,8 +3276,11 @@
       <c r="K6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>18.100000000000001</v>
       </c>
@@ -3291,8 +3314,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14.3</v>
       </c>
@@ -3326,8 +3352,11 @@
       <c r="K8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24.4</v>
       </c>
@@ -3361,8 +3390,11 @@
       <c r="K9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>22.8</v>
       </c>
@@ -3396,8 +3428,11 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>19.2</v>
       </c>
@@ -3431,8 +3466,11 @@
       <c r="K11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>17.8</v>
       </c>
@@ -3466,8 +3504,11 @@
       <c r="K12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16.399999999999999</v>
       </c>
@@ -3501,8 +3542,11 @@
       <c r="K13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17.3</v>
       </c>
@@ -3536,8 +3580,11 @@
       <c r="K14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15.2</v>
       </c>
@@ -3571,8 +3618,11 @@
       <c r="K15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10.4</v>
       </c>
@@ -3606,8 +3656,11 @@
       <c r="K16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10.4</v>
       </c>
@@ -3641,8 +3694,11 @@
       <c r="K17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14.7</v>
       </c>
@@ -3676,8 +3732,11 @@
       <c r="K18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>32.4</v>
       </c>
@@ -3711,8 +3770,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>30.4</v>
       </c>
@@ -3746,8 +3808,11 @@
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>33.9</v>
       </c>
@@ -3781,8 +3846,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21.5</v>
       </c>
@@ -3816,8 +3884,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15.5</v>
       </c>
@@ -3851,8 +3922,11 @@
       <c r="K23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>15.2</v>
       </c>
@@ -3886,8 +3960,11 @@
       <c r="K24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13.3</v>
       </c>
@@ -3921,8 +3998,11 @@
       <c r="K25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19.2</v>
       </c>
@@ -3956,8 +4036,11 @@
       <c r="K26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27.3</v>
       </c>
@@ -3991,8 +4074,11 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4026,8 +4112,11 @@
       <c r="K28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30.4</v>
       </c>
@@ -4061,8 +4150,11 @@
       <c r="K29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>15.8</v>
       </c>
@@ -4096,8 +4188,11 @@
       <c r="K30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>19.7</v>
       </c>
@@ -4131,8 +4226,11 @@
       <c r="K31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>15</v>
       </c>
@@ -4166,8 +4264,11 @@
       <c r="K32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>21.4</v>
       </c>
@@ -4199,6 +4300,9 @@
         <v>4</v>
       </c>
       <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
         <v>2</v>
       </c>
     </row>
@@ -4212,7 +4316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
